--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail1 Features.xlsx
@@ -4000,7 +4000,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.444912205130416</v>
+        <v>1.457696193049567</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.136385663481678</v>
@@ -4089,7 +4089,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.460185849396362</v>
+        <v>1.475527154361771</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.080669847762397</v>
@@ -4178,7 +4178,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.441395585719228</v>
+        <v>1.46099152138157</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.157966094280362</v>
@@ -4267,7 +4267,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.441420308661147</v>
+        <v>1.456994066931536</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.139118376896703</v>
@@ -4356,7 +4356,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.471749992781745</v>
+        <v>1.487796016439115</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.254254777548257</v>
@@ -4445,7 +4445,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.483728511607725</v>
+        <v>1.499315748064466</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.212526404196453</v>
@@ -4534,7 +4534,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.519593472664328</v>
+        <v>1.532322893702504</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.341073404189226</v>
@@ -4623,7 +4623,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.537451203861479</v>
+        <v>1.553004559539932</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.56399852692992</v>
@@ -4712,7 +4712,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.551722381545279</v>
+        <v>1.572604420908774</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.700797647907675</v>
@@ -4801,7 +4801,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.558231025534553</v>
+        <v>1.580437326906884</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.479227164335826</v>
@@ -4890,7 +4890,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.554162372711603</v>
+        <v>1.57264228864093</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.581262610679441</v>
@@ -4979,7 +4979,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.525432774847362</v>
+        <v>1.546448686339999</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.601800022002839</v>
@@ -5068,7 +5068,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.498331280583491</v>
+        <v>1.517667737988367</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.486845314549684</v>
@@ -5157,7 +5157,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.496206638891781</v>
+        <v>1.517896413202272</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.571160378571826</v>
@@ -5246,7 +5246,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.515298953397687</v>
+        <v>1.539317704288899</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.330563266602977</v>
@@ -5335,7 +5335,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.529715791518074</v>
+        <v>1.55481938274323</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.374717242990735</v>
@@ -5424,7 +5424,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.54091761354814</v>
+        <v>1.561598019225629</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.507572064518998</v>
@@ -5513,7 +5513,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.550203405534906</v>
+        <v>1.572101476140184</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.475395399946323</v>
@@ -5602,7 +5602,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.562924569450603</v>
+        <v>1.584691704240623</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.483492700496941</v>
@@ -5691,7 +5691,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.550237508085681</v>
+        <v>1.568870721661263</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.312310002871529</v>
@@ -5780,7 +5780,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.543664488088789</v>
+        <v>1.566299617418853</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.752243007535799</v>
@@ -5869,7 +5869,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.537850765693801</v>
+        <v>1.560569397032251</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.792181904083341</v>
@@ -5958,7 +5958,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.548431241669466</v>
+        <v>1.563770076882853</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.799512490955561</v>
@@ -6047,7 +6047,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.536439715485764</v>
+        <v>1.554761009256033</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.711990973452156</v>
@@ -6136,7 +6136,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.540173968804368</v>
+        <v>1.556412458632568</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.707444360678316</v>
@@ -6225,7 +6225,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.534747569181646</v>
+        <v>1.553113374453456</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.318673501460748</v>
@@ -6314,7 +6314,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.54270676737742</v>
+        <v>1.559135498406647</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.661355127716389</v>
@@ -6403,7 +6403,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.568965830389472</v>
+        <v>1.586635214082085</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.674700723905715</v>
@@ -6492,7 +6492,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.581568450728304</v>
+        <v>1.597391680236731</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.751697136712365</v>
@@ -6581,7 +6581,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.59259258320033</v>
+        <v>1.608266505722427</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.82035801053713</v>
@@ -6670,7 +6670,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.590780043821483</v>
+        <v>1.604932723596503</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.821838092655029</v>
@@ -6759,7 +6759,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.586218346994357</v>
+        <v>1.601723025744535</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.80297541167625</v>
@@ -6848,7 +6848,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.605301873380293</v>
+        <v>1.615917919458235</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.845072734866027</v>
@@ -6937,7 +6937,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.582319804358452</v>
+        <v>1.592961033271336</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.386805987332755</v>
@@ -7026,7 +7026,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.612297189765364</v>
+        <v>1.624272438859492</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.341560363343688</v>
@@ -7115,7 +7115,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.644885306846213</v>
+        <v>1.653662388149177</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.676100200319279</v>
@@ -7204,7 +7204,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.624975409277192</v>
+        <v>1.635579492583516</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.621875552218649</v>
@@ -7293,7 +7293,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.646581015745083</v>
+        <v>1.653872256165965</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.475934555729033</v>
@@ -7382,7 +7382,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.623301929917313</v>
+        <v>1.634002308560788</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.769998664186036</v>
@@ -7471,7 +7471,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.622109823483397</v>
+        <v>1.638318991635028</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.642889098283292</v>
@@ -7560,7 +7560,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.65004436141622</v>
+        <v>1.65896317096798</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.589192690788324</v>
@@ -7649,7 +7649,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.628168830730226</v>
+        <v>1.638725123000699</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.648853710585591</v>
@@ -7935,7 +7935,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.439951818895818</v>
+        <v>1.467794186091141</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.172292545664568</v>
@@ -8024,7 +8024,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.437518896247514</v>
+        <v>1.465390634645553</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.174546277151998</v>
@@ -8113,7 +8113,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.435936388071931</v>
+        <v>1.461497293122004</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.17425240600391</v>
@@ -8202,7 +8202,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.442531789537431</v>
+        <v>1.465098827873756</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.145791264972982</v>
@@ -8291,7 +8291,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.439918152640039</v>
+        <v>1.464149657774343</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.148323613189672</v>
@@ -8380,7 +8380,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.43655289293812</v>
+        <v>1.448184311663243</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.147883057215796</v>
@@ -8469,7 +8469,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.476594355060277</v>
+        <v>1.486641004012767</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.402166973721916</v>
@@ -8558,7 +8558,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.513121367674843</v>
+        <v>1.515466276364597</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.125129800141114</v>
@@ -8647,7 +8647,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.533475551741092</v>
+        <v>1.530585527779683</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.851287806975087</v>
@@ -8736,7 +8736,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.522769909926725</v>
+        <v>1.514079864213049</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.565102074460116</v>
@@ -8825,7 +8825,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.492600565403473</v>
+        <v>1.480664220607684</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.084396155132175</v>
@@ -8914,7 +8914,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.453583097781264</v>
+        <v>1.444032463917782</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.087563244570492</v>
@@ -9003,7 +9003,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.465303192430878</v>
+        <v>1.450994202944325</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.008081457029473</v>
@@ -9092,7 +9092,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.451287428835253</v>
+        <v>1.434740977157419</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.020111758023273</v>
@@ -9181,7 +9181,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.429769971679866</v>
+        <v>1.414665948879916</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.954405029531692</v>
@@ -9270,7 +9270,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.427979518283006</v>
+        <v>1.409918372717227</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.024399393091848</v>
@@ -9359,7 +9359,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.424340720206928</v>
+        <v>1.400481305416059</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.126183348121396</v>
@@ -9448,7 +9448,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.406607106980142</v>
+        <v>1.388561663906402</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.990489964127735</v>
@@ -9537,7 +9537,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.389148776052517</v>
+        <v>1.373734340777733</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.07980414152719</v>
@@ -9626,7 +9626,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.398302021850491</v>
+        <v>1.381147346141023</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.089641008920193</v>
@@ -9715,7 +9715,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.39223832540398</v>
+        <v>1.377358134582643</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.064271332684324</v>
@@ -9804,7 +9804,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.397614682819202</v>
+        <v>1.384316362699785</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.048731739140095</v>
@@ -9893,7 +9893,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.39246336783902</v>
+        <v>1.380981237628595</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.110342215659068</v>
@@ -9982,7 +9982,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.401994064073142</v>
+        <v>1.388804660497424</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.006740452497292</v>
@@ -10071,7 +10071,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.397783630131433</v>
+        <v>1.384656964610186</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.185145049311514</v>
@@ -10160,7 +10160,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.416935373373038</v>
+        <v>1.405949423723771</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.108355069823795</v>
@@ -10249,7 +10249,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.420568005425793</v>
+        <v>1.408838425281401</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.487137549467045</v>
@@ -10338,7 +10338,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.414717392154879</v>
+        <v>1.409258317056821</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.655927483338307</v>
@@ -10427,7 +10427,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.421792961958286</v>
+        <v>1.415956993641518</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.53265486213057</v>
@@ -10516,7 +10516,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.423506352172045</v>
+        <v>1.41414615607756</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.626371800967765</v>
@@ -10605,7 +10605,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.415943692435512</v>
+        <v>1.407021115953558</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.564455308425718</v>
@@ -10694,7 +10694,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.429798705792261</v>
+        <v>1.421486572809644</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.554755568824056</v>
@@ -10783,7 +10783,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.432267468002373</v>
+        <v>1.419953754886466</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.495691200365298</v>
@@ -10872,7 +10872,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.442721763115643</v>
+        <v>1.42869757036244</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.810929562575968</v>
@@ -10961,7 +10961,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.431148820910297</v>
+        <v>1.419163037687505</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.696610654747594</v>
@@ -11050,7 +11050,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.426518190349202</v>
+        <v>1.417140994050509</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.543330337948713</v>
@@ -11139,7 +11139,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.414582865648532</v>
+        <v>1.401392530910854</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.72701350237242</v>
@@ -11228,7 +11228,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.400679745076834</v>
+        <v>1.384037308350743</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.534096190722328</v>
@@ -11317,7 +11317,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.393169152946845</v>
+        <v>1.375002087454291</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.500790777345665</v>
@@ -11406,7 +11406,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.396119579027986</v>
+        <v>1.376595718338026</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.46100848356843</v>
@@ -11495,7 +11495,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.405056211876319</v>
+        <v>1.380415411106298</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.348714941098424</v>
@@ -11584,7 +11584,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.411958626272323</v>
+        <v>1.386131161896288</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.479206707526658</v>
@@ -11870,7 +11870,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.566334198296465</v>
+        <v>1.5642253876903</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.201592586321146</v>
@@ -11959,7 +11959,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.564181729040723</v>
+        <v>1.559585197487795</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.171827080968038</v>
@@ -12048,7 +12048,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.558019500905064</v>
+        <v>1.550345803802151</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.215024117510344</v>
@@ -12137,7 +12137,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.552537903565221</v>
+        <v>1.545679015078624</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.152200401659847</v>
@@ -12226,7 +12226,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.585601290246432</v>
+        <v>1.571058065646633</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.284233749181089</v>
@@ -12315,7 +12315,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.604252760029169</v>
+        <v>1.571479205807878</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.363018040327235</v>
@@ -12404,7 +12404,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.647051806696934</v>
+        <v>1.608647311086277</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.689125453619689</v>
@@ -12493,7 +12493,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.681040370358244</v>
+        <v>1.628144736232153</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.259114756178864</v>
@@ -12582,7 +12582,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.681507328467663</v>
+        <v>1.631827426884781</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.197817186588536</v>
@@ -12671,7 +12671,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.683115487576249</v>
+        <v>1.626530178329372</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.020092615663413</v>
@@ -12760,7 +12760,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.672475598195184</v>
+        <v>1.613092177682285</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.115377779897126</v>
@@ -12849,7 +12849,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.66543757702824</v>
+        <v>1.60764963022548</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.313150314559091</v>
@@ -12938,7 +12938,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.657011296560504</v>
+        <v>1.597817980453167</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.170083665850394</v>
@@ -13027,7 +13027,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.65951060064942</v>
+        <v>1.602093924208646</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.123336163700947</v>
@@ -13116,7 +13116,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.668329577138777</v>
+        <v>1.611531928142159</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.125004520340905</v>
@@ -13205,7 +13205,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.691978355637822</v>
+        <v>1.631208376818895</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.998195447556792</v>
@@ -13294,7 +13294,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.700274518434561</v>
+        <v>1.643582244208494</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.149422915746697</v>
@@ -13383,7 +13383,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.702582144695045</v>
+        <v>1.647229071638676</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.427876421824575</v>
@@ -13472,7 +13472,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.712269089397365</v>
+        <v>1.6562968243854</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.995584458139514</v>
@@ -13561,7 +13561,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.709900673208236</v>
+        <v>1.654387980853276</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.038160386799491</v>
@@ -13650,7 +13650,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.721650583282595</v>
+        <v>1.658028017058892</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.458323232770411</v>
@@ -13739,7 +13739,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.70892556726006</v>
+        <v>1.648659612221258</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.342864250796376</v>
@@ -13828,7 +13828,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.702053183927874</v>
+        <v>1.642637930361252</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.372839195912117</v>
@@ -13917,7 +13917,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.696087201725198</v>
+        <v>1.637064134092738</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.286185106474723</v>
@@ -14006,7 +14006,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.678946925399459</v>
+        <v>1.628431320497659</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.232890080483959</v>
@@ -14095,7 +14095,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.693445972647698</v>
+        <v>1.645107409146821</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.772274469578186</v>
@@ -14184,7 +14184,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.696228218985051</v>
+        <v>1.64223645282371</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.219634395651619</v>
@@ -14273,7 +14273,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.706074644140267</v>
+        <v>1.65132851927334</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.306427780468852</v>
@@ -14362,7 +14362,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.707005578066294</v>
+        <v>1.652770110043395</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.33466467329416</v>
@@ -14451,7 +14451,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.720953141716502</v>
+        <v>1.666252628364701</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.311272531425417</v>
@@ -14540,7 +14540,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.715732528639352</v>
+        <v>1.662312301602869</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.379126141521034</v>
@@ -14629,7 +14629,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.711227865647941</v>
+        <v>1.656118232947281</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.289675267243337</v>
@@ -14718,7 +14718,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.704432429187707</v>
+        <v>1.651311675355672</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.339918173333494</v>
@@ -14807,7 +14807,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.700179271863311</v>
+        <v>1.640524560037357</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.144309506803569</v>
@@ -14896,7 +14896,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.704751209042332</v>
+        <v>1.644749224856055</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.852284433970294</v>
@@ -14985,7 +14985,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.714982032962131</v>
+        <v>1.654861468080996</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.366567705574944</v>
@@ -15074,7 +15074,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.715165302670802</v>
+        <v>1.652194575573623</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.32315357195006</v>
@@ -15163,7 +15163,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.729209917012724</v>
+        <v>1.66699369393727</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.185986013360921</v>
@@ -15252,7 +15252,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.715354735436013</v>
+        <v>1.661299772664671</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.295335546629282</v>
@@ -15341,7 +15341,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.727215891211443</v>
+        <v>1.673544568350328</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.344364628771068</v>
@@ -15430,7 +15430,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.735770146960705</v>
+        <v>1.682036659591849</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.240753600585695</v>
@@ -15519,7 +15519,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.728922532916038</v>
+        <v>1.672834693158315</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.389549898011777</v>
@@ -15805,7 +15805,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.691521254204974</v>
+        <v>1.676373608091161</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.984810544418775</v>
@@ -15894,7 +15894,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.694975894851448</v>
+        <v>1.677128775231109</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.791534432036899</v>
@@ -15983,7 +15983,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.693842110349376</v>
+        <v>1.678744665998875</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.941688008511727</v>
@@ -16072,7 +16072,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.698120699203141</v>
+        <v>1.684658399378083</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.881549556208439</v>
@@ -16161,7 +16161,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.721294180870077</v>
+        <v>1.7036589001488</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.783637055732075</v>
@@ -16250,7 +16250,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.724396991596831</v>
+        <v>1.692817892758679</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.195455449672408</v>
@@ -16339,7 +16339,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.754604992676704</v>
+        <v>1.715430165419244</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.087705558212538</v>
@@ -16428,7 +16428,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.803153889675465</v>
+        <v>1.750994369836199</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.466983789196417</v>
@@ -16517,7 +16517,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.803947609812304</v>
+        <v>1.75869940594895</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.237778637377805</v>
@@ -16606,7 +16606,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.788605595401454</v>
+        <v>1.737412869891153</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.623135202687423</v>
@@ -16695,7 +16695,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.775611425634731</v>
+        <v>1.722150152943533</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.882252179927099</v>
@@ -16784,7 +16784,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.77732333377076</v>
+        <v>1.720991530366023</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.654756813276992</v>
@@ -16873,7 +16873,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.779133435348634</v>
+        <v>1.721573459813113</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.318208947943674</v>
@@ -16962,7 +16962,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.765571329448619</v>
+        <v>1.712136028158015</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.5568744772114</v>
@@ -17051,7 +17051,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.758709589935596</v>
+        <v>1.70449969351191</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.858483014754721</v>
@@ -17140,7 +17140,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.753998929205378</v>
+        <v>1.701071286625629</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.755814267087909</v>
@@ -17229,7 +17229,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.747507773691192</v>
+        <v>1.701044511312511</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.935005893356508</v>
@@ -17318,7 +17318,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.703499667484261</v>
+        <v>1.668171002817114</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.845280950562881</v>
@@ -17407,7 +17407,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.697197152172761</v>
+        <v>1.662266402364406</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.73990669875845</v>
@@ -17496,7 +17496,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.696388558206444</v>
+        <v>1.660851896914189</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.912655952836384</v>
@@ -17585,7 +17585,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.699504560504213</v>
+        <v>1.670239239506291</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.876922927383923</v>
@@ -17674,7 +17674,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.694961008714947</v>
+        <v>1.668088721099785</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.742717391326755</v>
@@ -17763,7 +17763,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.689665688338597</v>
+        <v>1.660199325326131</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.89318955259328</v>
@@ -17852,7 +17852,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.696867309014194</v>
+        <v>1.662795519134806</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.91173114370552</v>
@@ -17941,7 +17941,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.701963789924255</v>
+        <v>1.669726420713655</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.901230379902304</v>
@@ -18030,7 +18030,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.704599781478354</v>
+        <v>1.676305174082974</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.923115876287549</v>
@@ -18119,7 +18119,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.705280850995643</v>
+        <v>1.680604963922684</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.647013579938369</v>
@@ -18208,7 +18208,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.705393994320927</v>
+        <v>1.678115196706644</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.669039496183341</v>
@@ -18297,7 +18297,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.706670651551742</v>
+        <v>1.682447900968641</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.752303448755479</v>
@@ -18386,7 +18386,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.717361970100852</v>
+        <v>1.690675190395458</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.883829466518065</v>
@@ -18475,7 +18475,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.721464190544687</v>
+        <v>1.693633106873089</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.905702693156848</v>
@@ -18564,7 +18564,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.719444546498234</v>
+        <v>1.691669734300032</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.866790686839541</v>
@@ -18653,7 +18653,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.767936233915411</v>
+        <v>1.729350483528018</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.764193344398453</v>
@@ -18742,7 +18742,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.771149627727819</v>
+        <v>1.731426203748549</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.326377838928908</v>
@@ -18831,7 +18831,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.768375035402809</v>
+        <v>1.72676588105497</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.420291169246442</v>
@@ -18920,7 +18920,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.769090716217984</v>
+        <v>1.732414271231273</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.684426449043128</v>
@@ -19009,7 +19009,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.761683414464723</v>
+        <v>1.728853121339861</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.94341687891745</v>
@@ -19098,7 +19098,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.763403429051801</v>
+        <v>1.734679505627729</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.784335163329436</v>
@@ -19187,7 +19187,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.759975207155285</v>
+        <v>1.732653341296323</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.89745319027804</v>
@@ -19276,7 +19276,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.766593039200646</v>
+        <v>1.74183159671282</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.636527005261014</v>
@@ -19365,7 +19365,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.77576263276125</v>
+        <v>1.749743925886005</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.432787447709551</v>
@@ -19454,7 +19454,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.784467978169926</v>
+        <v>1.754333332491122</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.111213726299399</v>
@@ -19740,7 +19740,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.499196264695416</v>
+        <v>1.521699871275093</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.24969326157483</v>
@@ -19829,7 +19829,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.507964292816914</v>
+        <v>1.530354961737814</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.279256520674475</v>
@@ -19918,7 +19918,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.505075890339246</v>
+        <v>1.516226290051891</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.291697815437667</v>
@@ -20007,7 +20007,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.495185888052094</v>
+        <v>1.518106228234704</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.224908528555431</v>
@@ -20096,7 +20096,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.489280386695838</v>
+        <v>1.507844529971724</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.264769438478571</v>
@@ -20185,7 +20185,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.442143676481603</v>
+        <v>1.456315259689675</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.244675733032286</v>
@@ -20274,7 +20274,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.45700146241891</v>
+        <v>1.469524574692531</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.47645807111969</v>
@@ -20363,7 +20363,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.435721330617124</v>
+        <v>1.448486907062083</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.325007750790341</v>
@@ -20452,7 +20452,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.44469549998138</v>
+        <v>1.455993047706089</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.545943420441012</v>
@@ -20541,7 +20541,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.45525635908663</v>
+        <v>1.456654169705544</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.556451034733198</v>
@@ -20630,7 +20630,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.447959719219011</v>
+        <v>1.441967565811805</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.464474797694095</v>
@@ -20719,7 +20719,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.422688820270826</v>
+        <v>1.413526380998656</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.315210092289777</v>
@@ -20808,7 +20808,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.424236910204111</v>
+        <v>1.413827805835827</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.420143639640023</v>
@@ -20897,7 +20897,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.413863992442244</v>
+        <v>1.394113341528865</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.436990947255329</v>
@@ -20986,7 +20986,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.406631964763313</v>
+        <v>1.383216997286682</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.176196397678157</v>
@@ -21075,7 +21075,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.43221281909039</v>
+        <v>1.40527632364607</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.280105513237306</v>
@@ -21164,7 +21164,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.430667685486711</v>
+        <v>1.397946340042274</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.200292028969506</v>
@@ -21253,7 +21253,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.432319749369927</v>
+        <v>1.408266664025959</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.114293867754779</v>
@@ -21342,7 +21342,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.423428520175536</v>
+        <v>1.401617969239735</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.422395763054949</v>
@@ -21431,7 +21431,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.419690547787154</v>
+        <v>1.403115503601548</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.453787951973058</v>
@@ -21520,7 +21520,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.416370481902237</v>
+        <v>1.399762294132376</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.455533514908451</v>
@@ -21609,7 +21609,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.423309892408417</v>
+        <v>1.409965558018132</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.414890275806489</v>
@@ -21698,7 +21698,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.42480443416445</v>
+        <v>1.407448829345562</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.281902666262209</v>
@@ -21787,7 +21787,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.430136987719826</v>
+        <v>1.412530304085289</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.323064073211757</v>
@@ -21876,7 +21876,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.420396228811559</v>
+        <v>1.403551709501691</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.170817002989799</v>
@@ -21965,7 +21965,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.421578313590329</v>
+        <v>1.410360767620127</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.058428710355154</v>
@@ -22054,7 +22054,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.419321347236117</v>
+        <v>1.410552019368435</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.288958412742858</v>
@@ -22143,7 +22143,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.413737729404643</v>
+        <v>1.407795695469221</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.20514851738559</v>
@@ -22232,7 +22232,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.419560635455504</v>
+        <v>1.413624846177437</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.237022533108941</v>
@@ -22321,7 +22321,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.428877111751863</v>
+        <v>1.422346692313902</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.328822077700626</v>
@@ -22410,7 +22410,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.425282400129787</v>
+        <v>1.419360913751216</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.355603450823206</v>
@@ -22499,7 +22499,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.408489156845082</v>
+        <v>1.405787763885109</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.123817860388741</v>
@@ -22588,7 +22588,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.410918077930264</v>
+        <v>1.407243425049359</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.09754167307044</v>
@@ -22677,7 +22677,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.41906239080277</v>
+        <v>1.412049995238772</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.215863748148088</v>
@@ -22766,7 +22766,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.421395073419564</v>
+        <v>1.408288282224704</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.299659937727229</v>
@@ -22855,7 +22855,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.400951582472893</v>
+        <v>1.394974792933263</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.180654152317706</v>
@@ -22944,7 +22944,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.385570989417537</v>
+        <v>1.377811359291868</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.172558988259098</v>
@@ -23033,7 +23033,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.391362004272264</v>
+        <v>1.379334930703233</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.337793028879991</v>
@@ -23122,7 +23122,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.381348883328665</v>
+        <v>1.370942077688039</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.174856902231204</v>
@@ -23211,7 +23211,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.392836205566792</v>
+        <v>1.384920414896406</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.297022949176593</v>
@@ -23300,7 +23300,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.380689735260348</v>
+        <v>1.369566714017209</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.158794273817272</v>
@@ -23389,7 +23389,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.372037461543797</v>
+        <v>1.360518225356231</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.278833606937111</v>
@@ -23675,7 +23675,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.662709871868558</v>
+        <v>1.675710943504634</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.780374922745743</v>
@@ -23764,7 +23764,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.673584379536893</v>
+        <v>1.683437057208664</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.598520552474231</v>
@@ -23853,7 +23853,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.653850325892917</v>
+        <v>1.666222141081277</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.830783385045388</v>
@@ -23942,7 +23942,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.656430342390796</v>
+        <v>1.668902051165835</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.831752324158134</v>
@@ -24031,7 +24031,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.673188238195106</v>
+        <v>1.685618113019872</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.829540984121729</v>
@@ -24120,7 +24120,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.68917674156295</v>
+        <v>1.699860102840284</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.67730076788427</v>
@@ -24209,7 +24209,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.725231243256155</v>
+        <v>1.732623279822594</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.729416451774481</v>
@@ -24298,7 +24298,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.748093092598132</v>
+        <v>1.752148489904607</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.205935142011267</v>
@@ -24387,7 +24387,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.740736035953746</v>
+        <v>1.750116646017529</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.359951721555523</v>
@@ -24476,7 +24476,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.73902933239176</v>
+        <v>1.748324994330658</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.034119773607065</v>
@@ -24565,7 +24565,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.73510646474104</v>
+        <v>1.743000004288956</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.107950869673143</v>
@@ -24654,7 +24654,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.729190014921654</v>
+        <v>1.738510761653292</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.355355128095176</v>
@@ -24743,7 +24743,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.718744702318891</v>
+        <v>1.72688240073803</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.43198218147943</v>
@@ -24832,7 +24832,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.724590035619267</v>
+        <v>1.735908247157761</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.196598041085797</v>
@@ -24921,7 +24921,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.731366630469995</v>
+        <v>1.744506328987332</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.046607817560348</v>
@@ -25010,7 +25010,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.735506793774371</v>
+        <v>1.752695430856779</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.932660883907388</v>
@@ -25099,7 +25099,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.735075049014036</v>
+        <v>1.753274793795671</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.682513913260744</v>
@@ -25188,7 +25188,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.742552459104925</v>
+        <v>1.763651347234741</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.884603130707736</v>
@@ -25277,7 +25277,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.74097458239096</v>
+        <v>1.76507208410676</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.769884953391301</v>
@@ -25366,7 +25366,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.738536627717908</v>
+        <v>1.75957800648645</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.785725951566389</v>
@@ -25455,7 +25455,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.73358757287502</v>
+        <v>1.759031114424973</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.07630576925129</v>
@@ -25544,7 +25544,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.727588488899489</v>
+        <v>1.75345373880116</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.916006355521425</v>
@@ -25633,7 +25633,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.730169873086507</v>
+        <v>1.751215480148831</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.880012966145381</v>
@@ -25722,7 +25722,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.728468897592034</v>
+        <v>1.746628469928322</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.140138087597706</v>
@@ -25811,7 +25811,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.726471119928362</v>
+        <v>1.742530902938893</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.829923523340638</v>
@@ -25900,7 +25900,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.704097323112944</v>
+        <v>1.72236263824377</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.935663388639041</v>
@@ -25989,7 +25989,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.702414294754726</v>
+        <v>1.722803454277053</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.923211106722376</v>
@@ -26078,7 +26078,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.706968600899688</v>
+        <v>1.728039213506108</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.792328323204084</v>
@@ -26167,7 +26167,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.701374865977106</v>
+        <v>1.724031133366394</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.850603592291946</v>
@@ -26256,7 +26256,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.713852866455408</v>
+        <v>1.732250020510709</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.913304502233216</v>
@@ -26345,7 +26345,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.716049736593906</v>
+        <v>1.736363707880585</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.036528540568074</v>
@@ -26434,7 +26434,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.724688059592105</v>
+        <v>1.747293504287291</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.175874145749515</v>
@@ -26523,7 +26523,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.738673266064176</v>
+        <v>1.756138899962398</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.34066978538234</v>
@@ -26612,7 +26612,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.742145627904726</v>
+        <v>1.756299345946201</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.866788103477905</v>
@@ -26701,7 +26701,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.761120816203755</v>
+        <v>1.777980467150796</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.951997098542662</v>
@@ -26790,7 +26790,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.775298871722328</v>
+        <v>1.790617380636631</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.288766902032781</v>
@@ -26879,7 +26879,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.756616737176866</v>
+        <v>1.77206490882809</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.70692544707074</v>
@@ -26968,7 +26968,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.780220967320023</v>
+        <v>1.793523823928685</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.126733751224462</v>
@@ -27057,7 +27057,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.769045604721789</v>
+        <v>1.788100874827425</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.456228623321912</v>
@@ -27146,7 +27146,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.783032042622827</v>
+        <v>1.80268291833366</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.372711148714897</v>
@@ -27235,7 +27235,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.803232555259018</v>
+        <v>1.814631490280834</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.515602139975141</v>
@@ -27324,7 +27324,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.798947007568497</v>
+        <v>1.812240541249054</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.256540820117332</v>
